--- a/attendance/Neurokeys - BCI Typing Project.xlsx
+++ b/attendance/Neurokeys - BCI Typing Project.xlsx
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,6 +488,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1165,57 +1177,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G3" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H3" s="32" t="n"/>
-      <c r="I3" s="32" t="n"/>
-      <c r="J3" s="32" t="n"/>
-      <c r="K3" s="32" t="n"/>
-      <c r="L3" s="32" t="n"/>
-      <c r="M3" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N3" s="32" t="n"/>
-      <c r="O3" s="32" t="n"/>
-      <c r="P3" s="32" t="n"/>
-      <c r="Q3" s="32" t="n"/>
-      <c r="R3" s="32" t="n"/>
-      <c r="S3" s="32" t="n"/>
-      <c r="T3" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U3" s="32" t="n"/>
-      <c r="V3" s="32" t="n"/>
-      <c r="W3" s="32" t="n"/>
-      <c r="X3" s="32" t="n"/>
-      <c r="Y3" s="32" t="n"/>
-      <c r="Z3" s="32" t="n"/>
-      <c r="AA3" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB3" s="32" t="n"/>
-      <c r="AC3" s="32" t="n"/>
-      <c r="AD3" s="32" t="n"/>
-      <c r="AE3" s="32" t="n"/>
-      <c r="AF3" s="32" t="n"/>
-      <c r="AG3" s="32" t="n"/>
-      <c r="AH3" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI3" s="32" t="n"/>
-      <c r="AJ3" s="32" t="n"/>
-      <c r="AK3" s="32" t="n"/>
+      <c r="G3" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H3" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I3" s="44" t="inlineStr"/>
+      <c r="J3" s="44" t="inlineStr"/>
+      <c r="K3" s="44" t="inlineStr"/>
+      <c r="L3" s="44" t="inlineStr"/>
+      <c r="M3" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N3" s="44" t="inlineStr"/>
+      <c r="O3" s="44" t="inlineStr"/>
+      <c r="P3" s="44" t="inlineStr"/>
+      <c r="Q3" s="44" t="inlineStr"/>
+      <c r="R3" s="44" t="inlineStr"/>
+      <c r="S3" s="44" t="inlineStr"/>
+      <c r="T3" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U3" s="44" t="inlineStr"/>
+      <c r="V3" s="44" t="inlineStr"/>
+      <c r="W3" s="44" t="inlineStr"/>
+      <c r="X3" s="44" t="inlineStr"/>
+      <c r="Y3" s="44" t="inlineStr"/>
+      <c r="Z3" s="44" t="inlineStr"/>
+      <c r="AA3" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB3" s="44" t="inlineStr"/>
+      <c r="AC3" s="44" t="inlineStr"/>
+      <c r="AD3" s="44" t="inlineStr"/>
+      <c r="AE3" s="44" t="inlineStr"/>
+      <c r="AF3" s="44" t="inlineStr"/>
+      <c r="AG3" s="44" t="inlineStr"/>
+      <c r="AH3" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI3" s="44" t="inlineStr"/>
+      <c r="AJ3" s="44" t="inlineStr"/>
+      <c r="AK3" s="44" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="25" t="n">
@@ -1246,57 +1262,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G4" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H4" s="32" t="n"/>
-      <c r="I4" s="32" t="n"/>
-      <c r="J4" s="32" t="n"/>
-      <c r="K4" s="32" t="n"/>
-      <c r="L4" s="32" t="n"/>
-      <c r="M4" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N4" s="32" t="n"/>
-      <c r="O4" s="32" t="n"/>
-      <c r="P4" s="32" t="n"/>
-      <c r="Q4" s="32" t="n"/>
-      <c r="R4" s="32" t="n"/>
-      <c r="S4" s="32" t="n"/>
-      <c r="T4" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U4" s="32" t="n"/>
-      <c r="V4" s="32" t="n"/>
-      <c r="W4" s="32" t="n"/>
-      <c r="X4" s="32" t="n"/>
-      <c r="Y4" s="32" t="n"/>
-      <c r="Z4" s="32" t="n"/>
-      <c r="AA4" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB4" s="32" t="n"/>
-      <c r="AC4" s="32" t="n"/>
-      <c r="AD4" s="32" t="n"/>
-      <c r="AE4" s="32" t="n"/>
-      <c r="AF4" s="32" t="n"/>
-      <c r="AG4" s="32" t="n"/>
-      <c r="AH4" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI4" s="32" t="n"/>
-      <c r="AJ4" s="32" t="n"/>
-      <c r="AK4" s="32" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H4" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I4" s="44" t="inlineStr"/>
+      <c r="J4" s="44" t="inlineStr"/>
+      <c r="K4" s="44" t="inlineStr"/>
+      <c r="L4" s="44" t="inlineStr"/>
+      <c r="M4" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N4" s="44" t="inlineStr"/>
+      <c r="O4" s="44" t="inlineStr"/>
+      <c r="P4" s="44" t="inlineStr"/>
+      <c r="Q4" s="44" t="inlineStr"/>
+      <c r="R4" s="44" t="inlineStr"/>
+      <c r="S4" s="44" t="inlineStr"/>
+      <c r="T4" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U4" s="44" t="inlineStr"/>
+      <c r="V4" s="44" t="inlineStr"/>
+      <c r="W4" s="44" t="inlineStr"/>
+      <c r="X4" s="44" t="inlineStr"/>
+      <c r="Y4" s="44" t="inlineStr"/>
+      <c r="Z4" s="44" t="inlineStr"/>
+      <c r="AA4" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB4" s="44" t="inlineStr"/>
+      <c r="AC4" s="44" t="inlineStr"/>
+      <c r="AD4" s="44" t="inlineStr"/>
+      <c r="AE4" s="44" t="inlineStr"/>
+      <c r="AF4" s="44" t="inlineStr"/>
+      <c r="AG4" s="44" t="inlineStr"/>
+      <c r="AH4" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI4" s="44" t="inlineStr"/>
+      <c r="AJ4" s="44" t="inlineStr"/>
+      <c r="AK4" s="44" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="25" t="n">
@@ -1327,57 +1347,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G5" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H5" s="32" t="n"/>
-      <c r="I5" s="32" t="n"/>
-      <c r="J5" s="32" t="n"/>
-      <c r="K5" s="32" t="n"/>
-      <c r="L5" s="32" t="n"/>
-      <c r="M5" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N5" s="32" t="n"/>
-      <c r="O5" s="32" t="n"/>
-      <c r="P5" s="32" t="n"/>
-      <c r="Q5" s="32" t="n"/>
-      <c r="R5" s="32" t="n"/>
-      <c r="S5" s="32" t="n"/>
-      <c r="T5" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U5" s="32" t="n"/>
-      <c r="V5" s="32" t="n"/>
-      <c r="W5" s="32" t="n"/>
-      <c r="X5" s="32" t="n"/>
-      <c r="Y5" s="32" t="n"/>
-      <c r="Z5" s="32" t="n"/>
-      <c r="AA5" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB5" s="32" t="n"/>
-      <c r="AC5" s="32" t="n"/>
-      <c r="AD5" s="32" t="n"/>
-      <c r="AE5" s="32" t="n"/>
-      <c r="AF5" s="32" t="n"/>
-      <c r="AG5" s="32" t="n"/>
-      <c r="AH5" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI5" s="32" t="n"/>
-      <c r="AJ5" s="32" t="n"/>
-      <c r="AK5" s="32" t="n"/>
+      <c r="G5" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H5" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I5" s="44" t="inlineStr"/>
+      <c r="J5" s="44" t="inlineStr"/>
+      <c r="K5" s="44" t="inlineStr"/>
+      <c r="L5" s="44" t="inlineStr"/>
+      <c r="M5" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N5" s="44" t="inlineStr"/>
+      <c r="O5" s="44" t="inlineStr"/>
+      <c r="P5" s="44" t="inlineStr"/>
+      <c r="Q5" s="44" t="inlineStr"/>
+      <c r="R5" s="44" t="inlineStr"/>
+      <c r="S5" s="44" t="inlineStr"/>
+      <c r="T5" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U5" s="44" t="inlineStr"/>
+      <c r="V5" s="44" t="inlineStr"/>
+      <c r="W5" s="44" t="inlineStr"/>
+      <c r="X5" s="44" t="inlineStr"/>
+      <c r="Y5" s="44" t="inlineStr"/>
+      <c r="Z5" s="44" t="inlineStr"/>
+      <c r="AA5" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB5" s="44" t="inlineStr"/>
+      <c r="AC5" s="44" t="inlineStr"/>
+      <c r="AD5" s="44" t="inlineStr"/>
+      <c r="AE5" s="44" t="inlineStr"/>
+      <c r="AF5" s="44" t="inlineStr"/>
+      <c r="AG5" s="44" t="inlineStr"/>
+      <c r="AH5" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI5" s="44" t="inlineStr"/>
+      <c r="AJ5" s="44" t="inlineStr"/>
+      <c r="AK5" s="44" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="25" t="n">
@@ -1408,57 +1432,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G6" s="40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H6" s="32" t="n"/>
-      <c r="I6" s="32" t="n"/>
-      <c r="J6" s="32" t="n"/>
-      <c r="K6" s="32" t="n"/>
-      <c r="L6" s="32" t="n"/>
-      <c r="M6" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N6" s="32" t="n"/>
-      <c r="O6" s="32" t="n"/>
-      <c r="P6" s="32" t="n"/>
-      <c r="Q6" s="32" t="n"/>
-      <c r="R6" s="32" t="n"/>
-      <c r="S6" s="32" t="n"/>
-      <c r="T6" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U6" s="32" t="n"/>
-      <c r="V6" s="32" t="n"/>
-      <c r="W6" s="32" t="n"/>
-      <c r="X6" s="32" t="n"/>
-      <c r="Y6" s="32" t="n"/>
-      <c r="Z6" s="32" t="n"/>
-      <c r="AA6" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB6" s="32" t="n"/>
-      <c r="AC6" s="32" t="n"/>
-      <c r="AD6" s="32" t="n"/>
-      <c r="AE6" s="32" t="n"/>
-      <c r="AF6" s="32" t="n"/>
-      <c r="AG6" s="32" t="n"/>
-      <c r="AH6" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI6" s="32" t="n"/>
-      <c r="AJ6" s="32" t="n"/>
-      <c r="AK6" s="32" t="n"/>
+      <c r="G6" s="45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I6" s="44" t="inlineStr"/>
+      <c r="J6" s="44" t="inlineStr"/>
+      <c r="K6" s="44" t="inlineStr"/>
+      <c r="L6" s="44" t="inlineStr"/>
+      <c r="M6" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N6" s="44" t="inlineStr"/>
+      <c r="O6" s="44" t="inlineStr"/>
+      <c r="P6" s="44" t="inlineStr"/>
+      <c r="Q6" s="44" t="inlineStr"/>
+      <c r="R6" s="44" t="inlineStr"/>
+      <c r="S6" s="44" t="inlineStr"/>
+      <c r="T6" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U6" s="44" t="inlineStr"/>
+      <c r="V6" s="44" t="inlineStr"/>
+      <c r="W6" s="44" t="inlineStr"/>
+      <c r="X6" s="44" t="inlineStr"/>
+      <c r="Y6" s="44" t="inlineStr"/>
+      <c r="Z6" s="44" t="inlineStr"/>
+      <c r="AA6" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB6" s="44" t="inlineStr"/>
+      <c r="AC6" s="44" t="inlineStr"/>
+      <c r="AD6" s="44" t="inlineStr"/>
+      <c r="AE6" s="44" t="inlineStr"/>
+      <c r="AF6" s="44" t="inlineStr"/>
+      <c r="AG6" s="44" t="inlineStr"/>
+      <c r="AH6" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI6" s="44" t="inlineStr"/>
+      <c r="AJ6" s="44" t="inlineStr"/>
+      <c r="AK6" s="44" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="n">
@@ -1489,57 +1517,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G7" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H7" s="32" t="n"/>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="32" t="n"/>
-      <c r="K7" s="32" t="n"/>
-      <c r="L7" s="32" t="n"/>
-      <c r="M7" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N7" s="32" t="n"/>
-      <c r="O7" s="32" t="n"/>
-      <c r="P7" s="32" t="n"/>
-      <c r="Q7" s="32" t="n"/>
-      <c r="R7" s="32" t="n"/>
-      <c r="S7" s="32" t="n"/>
-      <c r="T7" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U7" s="32" t="n"/>
-      <c r="V7" s="32" t="n"/>
-      <c r="W7" s="32" t="n"/>
-      <c r="X7" s="32" t="n"/>
-      <c r="Y7" s="32" t="n"/>
-      <c r="Z7" s="32" t="n"/>
-      <c r="AA7" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB7" s="32" t="n"/>
-      <c r="AC7" s="32" t="n"/>
-      <c r="AD7" s="32" t="n"/>
-      <c r="AE7" s="32" t="n"/>
-      <c r="AF7" s="32" t="n"/>
-      <c r="AG7" s="32" t="n"/>
-      <c r="AH7" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI7" s="32" t="n"/>
-      <c r="AJ7" s="32" t="n"/>
-      <c r="AK7" s="32" t="n"/>
+      <c r="G7" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H7" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I7" s="44" t="inlineStr"/>
+      <c r="J7" s="44" t="inlineStr"/>
+      <c r="K7" s="44" t="inlineStr"/>
+      <c r="L7" s="44" t="inlineStr"/>
+      <c r="M7" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N7" s="44" t="inlineStr"/>
+      <c r="O7" s="44" t="inlineStr"/>
+      <c r="P7" s="44" t="inlineStr"/>
+      <c r="Q7" s="44" t="inlineStr"/>
+      <c r="R7" s="44" t="inlineStr"/>
+      <c r="S7" s="44" t="inlineStr"/>
+      <c r="T7" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U7" s="44" t="inlineStr"/>
+      <c r="V7" s="44" t="inlineStr"/>
+      <c r="W7" s="44" t="inlineStr"/>
+      <c r="X7" s="44" t="inlineStr"/>
+      <c r="Y7" s="44" t="inlineStr"/>
+      <c r="Z7" s="44" t="inlineStr"/>
+      <c r="AA7" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB7" s="44" t="inlineStr"/>
+      <c r="AC7" s="44" t="inlineStr"/>
+      <c r="AD7" s="44" t="inlineStr"/>
+      <c r="AE7" s="44" t="inlineStr"/>
+      <c r="AF7" s="44" t="inlineStr"/>
+      <c r="AG7" s="44" t="inlineStr"/>
+      <c r="AH7" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI7" s="44" t="inlineStr"/>
+      <c r="AJ7" s="44" t="inlineStr"/>
+      <c r="AK7" s="44" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="n">
@@ -1570,57 +1602,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G8" s="40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H8" s="32" t="n"/>
-      <c r="I8" s="32" t="n"/>
-      <c r="J8" s="32" t="n"/>
-      <c r="K8" s="32" t="n"/>
-      <c r="L8" s="32" t="n"/>
-      <c r="M8" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N8" s="32" t="n"/>
-      <c r="O8" s="32" t="n"/>
-      <c r="P8" s="32" t="n"/>
-      <c r="Q8" s="32" t="n"/>
-      <c r="R8" s="32" t="n"/>
-      <c r="S8" s="32" t="n"/>
-      <c r="T8" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U8" s="32" t="n"/>
-      <c r="V8" s="32" t="n"/>
-      <c r="W8" s="32" t="n"/>
-      <c r="X8" s="32" t="n"/>
-      <c r="Y8" s="32" t="n"/>
-      <c r="Z8" s="32" t="n"/>
-      <c r="AA8" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB8" s="32" t="n"/>
-      <c r="AC8" s="32" t="n"/>
-      <c r="AD8" s="32" t="n"/>
-      <c r="AE8" s="32" t="n"/>
-      <c r="AF8" s="32" t="n"/>
-      <c r="AG8" s="32" t="n"/>
-      <c r="AH8" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI8" s="32" t="n"/>
-      <c r="AJ8" s="32" t="n"/>
-      <c r="AK8" s="32" t="n"/>
+      <c r="G8" s="45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I8" s="44" t="inlineStr"/>
+      <c r="J8" s="44" t="inlineStr"/>
+      <c r="K8" s="44" t="inlineStr"/>
+      <c r="L8" s="44" t="inlineStr"/>
+      <c r="M8" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N8" s="44" t="inlineStr"/>
+      <c r="O8" s="44" t="inlineStr"/>
+      <c r="P8" s="44" t="inlineStr"/>
+      <c r="Q8" s="44" t="inlineStr"/>
+      <c r="R8" s="44" t="inlineStr"/>
+      <c r="S8" s="44" t="inlineStr"/>
+      <c r="T8" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U8" s="44" t="inlineStr"/>
+      <c r="V8" s="44" t="inlineStr"/>
+      <c r="W8" s="44" t="inlineStr"/>
+      <c r="X8" s="44" t="inlineStr"/>
+      <c r="Y8" s="44" t="inlineStr"/>
+      <c r="Z8" s="44" t="inlineStr"/>
+      <c r="AA8" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB8" s="44" t="inlineStr"/>
+      <c r="AC8" s="44" t="inlineStr"/>
+      <c r="AD8" s="44" t="inlineStr"/>
+      <c r="AE8" s="44" t="inlineStr"/>
+      <c r="AF8" s="44" t="inlineStr"/>
+      <c r="AG8" s="44" t="inlineStr"/>
+      <c r="AH8" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI8" s="44" t="inlineStr"/>
+      <c r="AJ8" s="44" t="inlineStr"/>
+      <c r="AK8" s="44" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="n">
@@ -1651,57 +1687,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G9" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="32" t="n"/>
-      <c r="J9" s="32" t="n"/>
-      <c r="K9" s="32" t="n"/>
-      <c r="L9" s="32" t="n"/>
-      <c r="M9" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N9" s="32" t="n"/>
-      <c r="O9" s="32" t="n"/>
-      <c r="P9" s="32" t="n"/>
-      <c r="Q9" s="32" t="n"/>
-      <c r="R9" s="32" t="n"/>
-      <c r="S9" s="32" t="n"/>
-      <c r="T9" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U9" s="32" t="n"/>
-      <c r="V9" s="32" t="n"/>
-      <c r="W9" s="32" t="n"/>
-      <c r="X9" s="32" t="n"/>
-      <c r="Y9" s="32" t="n"/>
-      <c r="Z9" s="32" t="n"/>
-      <c r="AA9" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB9" s="32" t="n"/>
-      <c r="AC9" s="32" t="n"/>
-      <c r="AD9" s="32" t="n"/>
-      <c r="AE9" s="32" t="n"/>
-      <c r="AF9" s="32" t="n"/>
-      <c r="AG9" s="32" t="n"/>
-      <c r="AH9" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI9" s="32" t="n"/>
-      <c r="AJ9" s="32" t="n"/>
-      <c r="AK9" s="32" t="n"/>
+      <c r="G9" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H9" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I9" s="44" t="inlineStr"/>
+      <c r="J9" s="44" t="inlineStr"/>
+      <c r="K9" s="44" t="inlineStr"/>
+      <c r="L9" s="44" t="inlineStr"/>
+      <c r="M9" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N9" s="44" t="inlineStr"/>
+      <c r="O9" s="44" t="inlineStr"/>
+      <c r="P9" s="44" t="inlineStr"/>
+      <c r="Q9" s="44" t="inlineStr"/>
+      <c r="R9" s="44" t="inlineStr"/>
+      <c r="S9" s="44" t="inlineStr"/>
+      <c r="T9" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U9" s="44" t="inlineStr"/>
+      <c r="V9" s="44" t="inlineStr"/>
+      <c r="W9" s="44" t="inlineStr"/>
+      <c r="X9" s="44" t="inlineStr"/>
+      <c r="Y9" s="44" t="inlineStr"/>
+      <c r="Z9" s="44" t="inlineStr"/>
+      <c r="AA9" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB9" s="44" t="inlineStr"/>
+      <c r="AC9" s="44" t="inlineStr"/>
+      <c r="AD9" s="44" t="inlineStr"/>
+      <c r="AE9" s="44" t="inlineStr"/>
+      <c r="AF9" s="44" t="inlineStr"/>
+      <c r="AG9" s="44" t="inlineStr"/>
+      <c r="AH9" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI9" s="44" t="inlineStr"/>
+      <c r="AJ9" s="44" t="inlineStr"/>
+      <c r="AK9" s="44" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="n">
@@ -1732,57 +1772,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G10" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="32" t="n"/>
-      <c r="J10" s="32" t="n"/>
-      <c r="K10" s="32" t="n"/>
-      <c r="L10" s="32" t="n"/>
-      <c r="M10" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N10" s="32" t="n"/>
-      <c r="O10" s="32" t="n"/>
-      <c r="P10" s="32" t="n"/>
-      <c r="Q10" s="32" t="n"/>
-      <c r="R10" s="32" t="n"/>
-      <c r="S10" s="32" t="n"/>
-      <c r="T10" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U10" s="32" t="n"/>
-      <c r="V10" s="32" t="n"/>
-      <c r="W10" s="32" t="n"/>
-      <c r="X10" s="32" t="n"/>
-      <c r="Y10" s="32" t="n"/>
-      <c r="Z10" s="32" t="n"/>
-      <c r="AA10" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB10" s="32" t="n"/>
-      <c r="AC10" s="32" t="n"/>
-      <c r="AD10" s="32" t="n"/>
-      <c r="AE10" s="32" t="n"/>
-      <c r="AF10" s="32" t="n"/>
-      <c r="AG10" s="32" t="n"/>
-      <c r="AH10" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI10" s="32" t="n"/>
-      <c r="AJ10" s="32" t="n"/>
-      <c r="AK10" s="32" t="n"/>
+      <c r="G10" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H10" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I10" s="44" t="inlineStr"/>
+      <c r="J10" s="44" t="inlineStr"/>
+      <c r="K10" s="44" t="inlineStr"/>
+      <c r="L10" s="44" t="inlineStr"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N10" s="44" t="inlineStr"/>
+      <c r="O10" s="44" t="inlineStr"/>
+      <c r="P10" s="44" t="inlineStr"/>
+      <c r="Q10" s="44" t="inlineStr"/>
+      <c r="R10" s="44" t="inlineStr"/>
+      <c r="S10" s="44" t="inlineStr"/>
+      <c r="T10" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U10" s="44" t="inlineStr"/>
+      <c r="V10" s="44" t="inlineStr"/>
+      <c r="W10" s="44" t="inlineStr"/>
+      <c r="X10" s="44" t="inlineStr"/>
+      <c r="Y10" s="44" t="inlineStr"/>
+      <c r="Z10" s="44" t="inlineStr"/>
+      <c r="AA10" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB10" s="44" t="inlineStr"/>
+      <c r="AC10" s="44" t="inlineStr"/>
+      <c r="AD10" s="44" t="inlineStr"/>
+      <c r="AE10" s="44" t="inlineStr"/>
+      <c r="AF10" s="44" t="inlineStr"/>
+      <c r="AG10" s="44" t="inlineStr"/>
+      <c r="AH10" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI10" s="44" t="inlineStr"/>
+      <c r="AJ10" s="44" t="inlineStr"/>
+      <c r="AK10" s="44" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="n">
@@ -1813,57 +1857,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G11" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H11" s="32" t="n"/>
-      <c r="I11" s="32" t="n"/>
-      <c r="J11" s="32" t="n"/>
-      <c r="K11" s="32" t="n"/>
-      <c r="L11" s="32" t="n"/>
-      <c r="M11" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N11" s="32" t="n"/>
-      <c r="O11" s="32" t="n"/>
-      <c r="P11" s="32" t="n"/>
-      <c r="Q11" s="32" t="n"/>
-      <c r="R11" s="32" t="n"/>
-      <c r="S11" s="32" t="n"/>
-      <c r="T11" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U11" s="32" t="n"/>
-      <c r="V11" s="32" t="n"/>
-      <c r="W11" s="32" t="n"/>
-      <c r="X11" s="32" t="n"/>
-      <c r="Y11" s="32" t="n"/>
-      <c r="Z11" s="32" t="n"/>
-      <c r="AA11" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB11" s="32" t="n"/>
-      <c r="AC11" s="32" t="n"/>
-      <c r="AD11" s="32" t="n"/>
-      <c r="AE11" s="32" t="n"/>
-      <c r="AF11" s="32" t="n"/>
-      <c r="AG11" s="32" t="n"/>
-      <c r="AH11" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI11" s="32" t="n"/>
-      <c r="AJ11" s="32" t="n"/>
-      <c r="AK11" s="32" t="n"/>
+      <c r="G11" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H11" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I11" s="44" t="inlineStr"/>
+      <c r="J11" s="44" t="inlineStr"/>
+      <c r="K11" s="44" t="inlineStr"/>
+      <c r="L11" s="44" t="inlineStr"/>
+      <c r="M11" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N11" s="44" t="inlineStr"/>
+      <c r="O11" s="44" t="inlineStr"/>
+      <c r="P11" s="44" t="inlineStr"/>
+      <c r="Q11" s="44" t="inlineStr"/>
+      <c r="R11" s="44" t="inlineStr"/>
+      <c r="S11" s="44" t="inlineStr"/>
+      <c r="T11" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U11" s="44" t="inlineStr"/>
+      <c r="V11" s="44" t="inlineStr"/>
+      <c r="W11" s="44" t="inlineStr"/>
+      <c r="X11" s="44" t="inlineStr"/>
+      <c r="Y11" s="44" t="inlineStr"/>
+      <c r="Z11" s="44" t="inlineStr"/>
+      <c r="AA11" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB11" s="44" t="inlineStr"/>
+      <c r="AC11" s="44" t="inlineStr"/>
+      <c r="AD11" s="44" t="inlineStr"/>
+      <c r="AE11" s="44" t="inlineStr"/>
+      <c r="AF11" s="44" t="inlineStr"/>
+      <c r="AG11" s="44" t="inlineStr"/>
+      <c r="AH11" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI11" s="44" t="inlineStr"/>
+      <c r="AJ11" s="44" t="inlineStr"/>
+      <c r="AK11" s="44" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="n">
@@ -1894,57 +1942,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="46" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="32" t="n"/>
-      <c r="J12" s="32" t="n"/>
-      <c r="K12" s="32" t="n"/>
-      <c r="L12" s="32" t="n"/>
-      <c r="M12" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="32" t="n"/>
-      <c r="Q12" s="32" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="32" t="n"/>
-      <c r="T12" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="32" t="n"/>
-      <c r="W12" s="32" t="n"/>
-      <c r="X12" s="32" t="n"/>
-      <c r="Y12" s="32" t="n"/>
-      <c r="Z12" s="32" t="n"/>
-      <c r="AA12" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB12" s="32" t="n"/>
-      <c r="AC12" s="32" t="n"/>
-      <c r="AD12" s="32" t="n"/>
-      <c r="AE12" s="32" t="n"/>
-      <c r="AF12" s="32" t="n"/>
-      <c r="AG12" s="32" t="n"/>
-      <c r="AH12" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI12" s="32" t="n"/>
-      <c r="AJ12" s="32" t="n"/>
-      <c r="AK12" s="32" t="n"/>
+      <c r="H12" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I12" s="44" t="inlineStr"/>
+      <c r="J12" s="44" t="inlineStr"/>
+      <c r="K12" s="44" t="inlineStr"/>
+      <c r="L12" s="44" t="inlineStr"/>
+      <c r="M12" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N12" s="44" t="inlineStr"/>
+      <c r="O12" s="44" t="inlineStr"/>
+      <c r="P12" s="44" t="inlineStr"/>
+      <c r="Q12" s="44" t="inlineStr"/>
+      <c r="R12" s="44" t="inlineStr"/>
+      <c r="S12" s="44" t="inlineStr"/>
+      <c r="T12" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U12" s="44" t="inlineStr"/>
+      <c r="V12" s="44" t="inlineStr"/>
+      <c r="W12" s="44" t="inlineStr"/>
+      <c r="X12" s="44" t="inlineStr"/>
+      <c r="Y12" s="44" t="inlineStr"/>
+      <c r="Z12" s="44" t="inlineStr"/>
+      <c r="AA12" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB12" s="44" t="inlineStr"/>
+      <c r="AC12" s="44" t="inlineStr"/>
+      <c r="AD12" s="44" t="inlineStr"/>
+      <c r="AE12" s="44" t="inlineStr"/>
+      <c r="AF12" s="44" t="inlineStr"/>
+      <c r="AG12" s="44" t="inlineStr"/>
+      <c r="AH12" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI12" s="44" t="inlineStr"/>
+      <c r="AJ12" s="44" t="inlineStr"/>
+      <c r="AK12" s="44" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="25" t="n">
@@ -1975,57 +2027,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G13" s="40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="32" t="n"/>
-      <c r="J13" s="32" t="n"/>
-      <c r="K13" s="32" t="n"/>
-      <c r="L13" s="32" t="n"/>
-      <c r="M13" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="32" t="n"/>
-      <c r="Q13" s="32" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="32" t="n"/>
-      <c r="T13" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="32" t="n"/>
-      <c r="W13" s="32" t="n"/>
-      <c r="X13" s="32" t="n"/>
-      <c r="Y13" s="32" t="n"/>
-      <c r="Z13" s="32" t="n"/>
-      <c r="AA13" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB13" s="32" t="n"/>
-      <c r="AC13" s="32" t="n"/>
-      <c r="AD13" s="32" t="n"/>
-      <c r="AE13" s="32" t="n"/>
-      <c r="AF13" s="32" t="n"/>
-      <c r="AG13" s="32" t="n"/>
-      <c r="AH13" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI13" s="32" t="n"/>
-      <c r="AJ13" s="32" t="n"/>
-      <c r="AK13" s="32" t="n"/>
+      <c r="G13" s="45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H13" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I13" s="44" t="inlineStr"/>
+      <c r="J13" s="44" t="inlineStr"/>
+      <c r="K13" s="44" t="inlineStr"/>
+      <c r="L13" s="44" t="inlineStr"/>
+      <c r="M13" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N13" s="44" t="inlineStr"/>
+      <c r="O13" s="44" t="inlineStr"/>
+      <c r="P13" s="44" t="inlineStr"/>
+      <c r="Q13" s="44" t="inlineStr"/>
+      <c r="R13" s="44" t="inlineStr"/>
+      <c r="S13" s="44" t="inlineStr"/>
+      <c r="T13" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U13" s="44" t="inlineStr"/>
+      <c r="V13" s="44" t="inlineStr"/>
+      <c r="W13" s="44" t="inlineStr"/>
+      <c r="X13" s="44" t="inlineStr"/>
+      <c r="Y13" s="44" t="inlineStr"/>
+      <c r="Z13" s="44" t="inlineStr"/>
+      <c r="AA13" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB13" s="44" t="inlineStr"/>
+      <c r="AC13" s="44" t="inlineStr"/>
+      <c r="AD13" s="44" t="inlineStr"/>
+      <c r="AE13" s="44" t="inlineStr"/>
+      <c r="AF13" s="44" t="inlineStr"/>
+      <c r="AG13" s="44" t="inlineStr"/>
+      <c r="AH13" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI13" s="44" t="inlineStr"/>
+      <c r="AJ13" s="44" t="inlineStr"/>
+      <c r="AK13" s="44" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="25" t="n">
@@ -2056,57 +2112,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G14" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="32" t="n"/>
-      <c r="K14" s="32" t="n"/>
-      <c r="L14" s="32" t="n"/>
-      <c r="M14" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N14" s="32" t="n"/>
-      <c r="O14" s="32" t="n"/>
-      <c r="P14" s="32" t="n"/>
-      <c r="Q14" s="32" t="n"/>
-      <c r="R14" s="32" t="n"/>
-      <c r="S14" s="32" t="n"/>
-      <c r="T14" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U14" s="32" t="n"/>
-      <c r="V14" s="32" t="n"/>
-      <c r="W14" s="32" t="n"/>
-      <c r="X14" s="32" t="n"/>
-      <c r="Y14" s="32" t="n"/>
-      <c r="Z14" s="32" t="n"/>
-      <c r="AA14" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB14" s="32" t="n"/>
-      <c r="AC14" s="32" t="n"/>
-      <c r="AD14" s="32" t="n"/>
-      <c r="AE14" s="32" t="n"/>
-      <c r="AF14" s="32" t="n"/>
-      <c r="AG14" s="32" t="n"/>
-      <c r="AH14" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI14" s="32" t="n"/>
-      <c r="AJ14" s="32" t="n"/>
-      <c r="AK14" s="32" t="n"/>
+      <c r="G14" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H14" s="29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" s="44" t="inlineStr"/>
+      <c r="J14" s="44" t="inlineStr"/>
+      <c r="K14" s="44" t="inlineStr"/>
+      <c r="L14" s="44" t="inlineStr"/>
+      <c r="M14" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N14" s="44" t="inlineStr"/>
+      <c r="O14" s="44" t="inlineStr"/>
+      <c r="P14" s="44" t="inlineStr"/>
+      <c r="Q14" s="44" t="inlineStr"/>
+      <c r="R14" s="44" t="inlineStr"/>
+      <c r="S14" s="44" t="inlineStr"/>
+      <c r="T14" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U14" s="44" t="inlineStr"/>
+      <c r="V14" s="44" t="inlineStr"/>
+      <c r="W14" s="44" t="inlineStr"/>
+      <c r="X14" s="44" t="inlineStr"/>
+      <c r="Y14" s="44" t="inlineStr"/>
+      <c r="Z14" s="44" t="inlineStr"/>
+      <c r="AA14" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB14" s="44" t="inlineStr"/>
+      <c r="AC14" s="44" t="inlineStr"/>
+      <c r="AD14" s="44" t="inlineStr"/>
+      <c r="AE14" s="44" t="inlineStr"/>
+      <c r="AF14" s="44" t="inlineStr"/>
+      <c r="AG14" s="44" t="inlineStr"/>
+      <c r="AH14" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI14" s="44" t="inlineStr"/>
+      <c r="AJ14" s="44" t="inlineStr"/>
+      <c r="AK14" s="44" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="25" t="n">
@@ -2137,57 +2197,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G15" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="32" t="n"/>
-      <c r="J15" s="32" t="n"/>
-      <c r="K15" s="32" t="n"/>
-      <c r="L15" s="32" t="n"/>
-      <c r="M15" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N15" s="32" t="n"/>
-      <c r="O15" s="32" t="n"/>
-      <c r="P15" s="32" t="n"/>
-      <c r="Q15" s="32" t="n"/>
-      <c r="R15" s="32" t="n"/>
-      <c r="S15" s="32" t="n"/>
-      <c r="T15" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U15" s="32" t="n"/>
-      <c r="V15" s="32" t="n"/>
-      <c r="W15" s="32" t="n"/>
-      <c r="X15" s="32" t="n"/>
-      <c r="Y15" s="32" t="n"/>
-      <c r="Z15" s="32" t="n"/>
-      <c r="AA15" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB15" s="32" t="n"/>
-      <c r="AC15" s="32" t="n"/>
-      <c r="AD15" s="32" t="n"/>
-      <c r="AE15" s="32" t="n"/>
-      <c r="AF15" s="32" t="n"/>
-      <c r="AG15" s="32" t="n"/>
-      <c r="AH15" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI15" s="32" t="n"/>
-      <c r="AJ15" s="32" t="n"/>
-      <c r="AK15" s="32" t="n"/>
+      <c r="G15" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H15" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I15" s="44" t="inlineStr"/>
+      <c r="J15" s="44" t="inlineStr"/>
+      <c r="K15" s="44" t="inlineStr"/>
+      <c r="L15" s="44" t="inlineStr"/>
+      <c r="M15" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N15" s="44" t="inlineStr"/>
+      <c r="O15" s="44" t="inlineStr"/>
+      <c r="P15" s="44" t="inlineStr"/>
+      <c r="Q15" s="44" t="inlineStr"/>
+      <c r="R15" s="44" t="inlineStr"/>
+      <c r="S15" s="44" t="inlineStr"/>
+      <c r="T15" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U15" s="44" t="inlineStr"/>
+      <c r="V15" s="44" t="inlineStr"/>
+      <c r="W15" s="44" t="inlineStr"/>
+      <c r="X15" s="44" t="inlineStr"/>
+      <c r="Y15" s="44" t="inlineStr"/>
+      <c r="Z15" s="44" t="inlineStr"/>
+      <c r="AA15" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB15" s="44" t="inlineStr"/>
+      <c r="AC15" s="44" t="inlineStr"/>
+      <c r="AD15" s="44" t="inlineStr"/>
+      <c r="AE15" s="44" t="inlineStr"/>
+      <c r="AF15" s="44" t="inlineStr"/>
+      <c r="AG15" s="44" t="inlineStr"/>
+      <c r="AH15" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI15" s="44" t="inlineStr"/>
+      <c r="AJ15" s="44" t="inlineStr"/>
+      <c r="AK15" s="44" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="25" t="n">
@@ -2218,57 +2282,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G16" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="32" t="n"/>
-      <c r="J16" s="32" t="n"/>
-      <c r="K16" s="32" t="n"/>
-      <c r="L16" s="32" t="n"/>
-      <c r="M16" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N16" s="32" t="n"/>
-      <c r="O16" s="32" t="n"/>
-      <c r="P16" s="32" t="n"/>
-      <c r="Q16" s="32" t="n"/>
-      <c r="R16" s="32" t="n"/>
-      <c r="S16" s="32" t="n"/>
-      <c r="T16" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U16" s="32" t="n"/>
-      <c r="V16" s="32" t="n"/>
-      <c r="W16" s="32" t="n"/>
-      <c r="X16" s="32" t="n"/>
-      <c r="Y16" s="32" t="n"/>
-      <c r="Z16" s="32" t="n"/>
-      <c r="AA16" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB16" s="32" t="n"/>
-      <c r="AC16" s="32" t="n"/>
-      <c r="AD16" s="32" t="n"/>
-      <c r="AE16" s="32" t="n"/>
-      <c r="AF16" s="32" t="n"/>
-      <c r="AG16" s="32" t="n"/>
-      <c r="AH16" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI16" s="32" t="n"/>
-      <c r="AJ16" s="32" t="n"/>
-      <c r="AK16" s="32" t="n"/>
+      <c r="G16" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H16" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I16" s="44" t="inlineStr"/>
+      <c r="J16" s="44" t="inlineStr"/>
+      <c r="K16" s="44" t="inlineStr"/>
+      <c r="L16" s="44" t="inlineStr"/>
+      <c r="M16" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N16" s="44" t="inlineStr"/>
+      <c r="O16" s="44" t="inlineStr"/>
+      <c r="P16" s="44" t="inlineStr"/>
+      <c r="Q16" s="44" t="inlineStr"/>
+      <c r="R16" s="44" t="inlineStr"/>
+      <c r="S16" s="44" t="inlineStr"/>
+      <c r="T16" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U16" s="44" t="inlineStr"/>
+      <c r="V16" s="44" t="inlineStr"/>
+      <c r="W16" s="44" t="inlineStr"/>
+      <c r="X16" s="44" t="inlineStr"/>
+      <c r="Y16" s="44" t="inlineStr"/>
+      <c r="Z16" s="44" t="inlineStr"/>
+      <c r="AA16" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB16" s="44" t="inlineStr"/>
+      <c r="AC16" s="44" t="inlineStr"/>
+      <c r="AD16" s="44" t="inlineStr"/>
+      <c r="AE16" s="44" t="inlineStr"/>
+      <c r="AF16" s="44" t="inlineStr"/>
+      <c r="AG16" s="44" t="inlineStr"/>
+      <c r="AH16" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI16" s="44" t="inlineStr"/>
+      <c r="AJ16" s="44" t="inlineStr"/>
+      <c r="AK16" s="44" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="25" t="n">
@@ -2299,57 +2367,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G17" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H17" s="32" t="n"/>
-      <c r="I17" s="32" t="n"/>
-      <c r="J17" s="32" t="n"/>
-      <c r="K17" s="32" t="n"/>
-      <c r="L17" s="32" t="n"/>
-      <c r="M17" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N17" s="32" t="n"/>
-      <c r="O17" s="32" t="n"/>
-      <c r="P17" s="32" t="n"/>
-      <c r="Q17" s="32" t="n"/>
-      <c r="R17" s="32" t="n"/>
-      <c r="S17" s="32" t="n"/>
-      <c r="T17" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U17" s="32" t="n"/>
-      <c r="V17" s="32" t="n"/>
-      <c r="W17" s="32" t="n"/>
-      <c r="X17" s="32" t="n"/>
-      <c r="Y17" s="32" t="n"/>
-      <c r="Z17" s="32" t="n"/>
-      <c r="AA17" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB17" s="32" t="n"/>
-      <c r="AC17" s="32" t="n"/>
-      <c r="AD17" s="32" t="n"/>
-      <c r="AE17" s="32" t="n"/>
-      <c r="AF17" s="32" t="n"/>
-      <c r="AG17" s="32" t="n"/>
-      <c r="AH17" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI17" s="32" t="n"/>
-      <c r="AJ17" s="32" t="n"/>
-      <c r="AK17" s="32" t="n"/>
+      <c r="G17" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H17" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I17" s="44" t="inlineStr"/>
+      <c r="J17" s="44" t="inlineStr"/>
+      <c r="K17" s="44" t="inlineStr"/>
+      <c r="L17" s="44" t="inlineStr"/>
+      <c r="M17" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N17" s="44" t="inlineStr"/>
+      <c r="O17" s="44" t="inlineStr"/>
+      <c r="P17" s="44" t="inlineStr"/>
+      <c r="Q17" s="44" t="inlineStr"/>
+      <c r="R17" s="44" t="inlineStr"/>
+      <c r="S17" s="44" t="inlineStr"/>
+      <c r="T17" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U17" s="44" t="inlineStr"/>
+      <c r="V17" s="44" t="inlineStr"/>
+      <c r="W17" s="44" t="inlineStr"/>
+      <c r="X17" s="44" t="inlineStr"/>
+      <c r="Y17" s="44" t="inlineStr"/>
+      <c r="Z17" s="44" t="inlineStr"/>
+      <c r="AA17" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB17" s="44" t="inlineStr"/>
+      <c r="AC17" s="44" t="inlineStr"/>
+      <c r="AD17" s="44" t="inlineStr"/>
+      <c r="AE17" s="44" t="inlineStr"/>
+      <c r="AF17" s="44" t="inlineStr"/>
+      <c r="AG17" s="44" t="inlineStr"/>
+      <c r="AH17" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI17" s="44" t="inlineStr"/>
+      <c r="AJ17" s="44" t="inlineStr"/>
+      <c r="AK17" s="44" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="25" t="n">
@@ -2380,57 +2452,61 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G18" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H18" s="32" t="n"/>
-      <c r="I18" s="32" t="n"/>
-      <c r="J18" s="32" t="n"/>
-      <c r="K18" s="32" t="n"/>
-      <c r="L18" s="32" t="n"/>
-      <c r="M18" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N18" s="32" t="n"/>
-      <c r="O18" s="32" t="n"/>
-      <c r="P18" s="32" t="n"/>
-      <c r="Q18" s="32" t="n"/>
-      <c r="R18" s="32" t="n"/>
-      <c r="S18" s="32" t="n"/>
-      <c r="T18" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U18" s="32" t="n"/>
-      <c r="V18" s="32" t="n"/>
-      <c r="W18" s="32" t="n"/>
-      <c r="X18" s="32" t="n"/>
-      <c r="Y18" s="32" t="n"/>
-      <c r="Z18" s="32" t="n"/>
-      <c r="AA18" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB18" s="32" t="n"/>
-      <c r="AC18" s="32" t="n"/>
-      <c r="AD18" s="32" t="n"/>
-      <c r="AE18" s="32" t="n"/>
-      <c r="AF18" s="32" t="n"/>
-      <c r="AG18" s="32" t="n"/>
-      <c r="AH18" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI18" s="32" t="n"/>
-      <c r="AJ18" s="32" t="n"/>
-      <c r="AK18" s="32" t="n"/>
+      <c r="G18" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H18" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I18" s="44" t="inlineStr"/>
+      <c r="J18" s="44" t="inlineStr"/>
+      <c r="K18" s="44" t="inlineStr"/>
+      <c r="L18" s="44" t="inlineStr"/>
+      <c r="M18" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N18" s="44" t="inlineStr"/>
+      <c r="O18" s="44" t="inlineStr"/>
+      <c r="P18" s="44" t="inlineStr"/>
+      <c r="Q18" s="44" t="inlineStr"/>
+      <c r="R18" s="44" t="inlineStr"/>
+      <c r="S18" s="44" t="inlineStr"/>
+      <c r="T18" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U18" s="44" t="inlineStr"/>
+      <c r="V18" s="44" t="inlineStr"/>
+      <c r="W18" s="44" t="inlineStr"/>
+      <c r="X18" s="44" t="inlineStr"/>
+      <c r="Y18" s="44" t="inlineStr"/>
+      <c r="Z18" s="44" t="inlineStr"/>
+      <c r="AA18" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB18" s="44" t="inlineStr"/>
+      <c r="AC18" s="44" t="inlineStr"/>
+      <c r="AD18" s="44" t="inlineStr"/>
+      <c r="AE18" s="44" t="inlineStr"/>
+      <c r="AF18" s="44" t="inlineStr"/>
+      <c r="AG18" s="44" t="inlineStr"/>
+      <c r="AH18" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI18" s="44" t="inlineStr"/>
+      <c r="AJ18" s="44" t="inlineStr"/>
+      <c r="AK18" s="44" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="25" t="n">
@@ -2461,64 +2537,68 @@
           <t>H</t>
         </is>
       </c>
-      <c r="G19" s="31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H19" s="32" t="n"/>
-      <c r="I19" s="32" t="n"/>
-      <c r="J19" s="32" t="n"/>
-      <c r="K19" s="32" t="n"/>
-      <c r="L19" s="32" t="n"/>
-      <c r="M19" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N19" s="32" t="n"/>
-      <c r="O19" s="32" t="n"/>
-      <c r="P19" s="32" t="n"/>
-      <c r="Q19" s="32" t="n"/>
-      <c r="R19" s="32" t="n"/>
-      <c r="S19" s="32" t="n"/>
-      <c r="T19" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="U19" s="32" t="n"/>
-      <c r="V19" s="32" t="n"/>
-      <c r="W19" s="32" t="n"/>
-      <c r="X19" s="32" t="n"/>
-      <c r="Y19" s="32" t="n"/>
-      <c r="Z19" s="32" t="n"/>
-      <c r="AA19" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AB19" s="32" t="n"/>
-      <c r="AC19" s="32" t="n"/>
-      <c r="AD19" s="32" t="n"/>
-      <c r="AE19" s="32" t="n"/>
-      <c r="AF19" s="32" t="n"/>
-      <c r="AG19" s="32" t="n"/>
-      <c r="AH19" s="33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AI19" s="32" t="n"/>
-      <c r="AJ19" s="32" t="n"/>
-      <c r="AK19" s="32" t="n"/>
+      <c r="G19" s="43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H19" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I19" s="44" t="inlineStr"/>
+      <c r="J19" s="44" t="inlineStr"/>
+      <c r="K19" s="44" t="inlineStr"/>
+      <c r="L19" s="44" t="inlineStr"/>
+      <c r="M19" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="N19" s="44" t="inlineStr"/>
+      <c r="O19" s="44" t="inlineStr"/>
+      <c r="P19" s="44" t="inlineStr"/>
+      <c r="Q19" s="44" t="inlineStr"/>
+      <c r="R19" s="44" t="inlineStr"/>
+      <c r="S19" s="44" t="inlineStr"/>
+      <c r="T19" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U19" s="44" t="inlineStr"/>
+      <c r="V19" s="44" t="inlineStr"/>
+      <c r="W19" s="44" t="inlineStr"/>
+      <c r="X19" s="44" t="inlineStr"/>
+      <c r="Y19" s="44" t="inlineStr"/>
+      <c r="Z19" s="44" t="inlineStr"/>
+      <c r="AA19" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AB19" s="44" t="inlineStr"/>
+      <c r="AC19" s="44" t="inlineStr"/>
+      <c r="AD19" s="44" t="inlineStr"/>
+      <c r="AE19" s="44" t="inlineStr"/>
+      <c r="AF19" s="44" t="inlineStr"/>
+      <c r="AG19" s="44" t="inlineStr"/>
+      <c r="AH19" s="42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AI19" s="44" t="inlineStr"/>
+      <c r="AJ19" s="44" t="inlineStr"/>
+      <c r="AK19" s="44" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:AK1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:AK1"/>
-    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/attendance/Neurokeys - BCI Typing Project.xlsx
+++ b/attendance/Neurokeys - BCI Typing Project.xlsx
@@ -1187,7 +1187,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I3" s="44" t="inlineStr"/>
+      <c r="I3" s="29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J3" s="44" t="inlineStr"/>
       <c r="K3" s="44" t="inlineStr"/>
       <c r="L3" s="44" t="inlineStr"/>
@@ -1272,7 +1276,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I4" s="44" t="inlineStr"/>
+      <c r="I4" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J4" s="44" t="inlineStr"/>
       <c r="K4" s="44" t="inlineStr"/>
       <c r="L4" s="44" t="inlineStr"/>
@@ -1357,7 +1365,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I5" s="44" t="inlineStr"/>
+      <c r="I5" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J5" s="44" t="inlineStr"/>
       <c r="K5" s="44" t="inlineStr"/>
       <c r="L5" s="44" t="inlineStr"/>
@@ -1442,7 +1454,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I6" s="44" t="inlineStr"/>
+      <c r="I6" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J6" s="44" t="inlineStr"/>
       <c r="K6" s="44" t="inlineStr"/>
       <c r="L6" s="44" t="inlineStr"/>
@@ -1527,7 +1543,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="44" t="inlineStr"/>
+      <c r="I7" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J7" s="44" t="inlineStr"/>
       <c r="K7" s="44" t="inlineStr"/>
       <c r="L7" s="44" t="inlineStr"/>
@@ -1612,7 +1632,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="44" t="inlineStr"/>
+      <c r="I8" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J8" s="44" t="inlineStr"/>
       <c r="K8" s="44" t="inlineStr"/>
       <c r="L8" s="44" t="inlineStr"/>
@@ -1697,7 +1721,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I9" s="44" t="inlineStr"/>
+      <c r="I9" s="29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J9" s="44" t="inlineStr"/>
       <c r="K9" s="44" t="inlineStr"/>
       <c r="L9" s="44" t="inlineStr"/>
@@ -1782,7 +1810,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I10" s="44" t="inlineStr"/>
+      <c r="I10" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J10" s="44" t="inlineStr"/>
       <c r="K10" s="44" t="inlineStr"/>
       <c r="L10" s="44" t="inlineStr"/>
@@ -1867,7 +1899,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="44" t="inlineStr"/>
+      <c r="I11" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J11" s="44" t="inlineStr"/>
       <c r="K11" s="44" t="inlineStr"/>
       <c r="L11" s="44" t="inlineStr"/>
@@ -1952,7 +1988,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I12" s="44" t="inlineStr"/>
+      <c r="I12" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J12" s="44" t="inlineStr"/>
       <c r="K12" s="44" t="inlineStr"/>
       <c r="L12" s="44" t="inlineStr"/>
@@ -2037,7 +2077,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I13" s="44" t="inlineStr"/>
+      <c r="I13" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J13" s="44" t="inlineStr"/>
       <c r="K13" s="44" t="inlineStr"/>
       <c r="L13" s="44" t="inlineStr"/>
@@ -2122,7 +2166,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I14" s="44" t="inlineStr"/>
+      <c r="I14" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J14" s="44" t="inlineStr"/>
       <c r="K14" s="44" t="inlineStr"/>
       <c r="L14" s="44" t="inlineStr"/>
@@ -2207,7 +2255,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I15" s="44" t="inlineStr"/>
+      <c r="I15" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J15" s="44" t="inlineStr"/>
       <c r="K15" s="44" t="inlineStr"/>
       <c r="L15" s="44" t="inlineStr"/>
@@ -2292,7 +2344,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I16" s="44" t="inlineStr"/>
+      <c r="I16" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J16" s="44" t="inlineStr"/>
       <c r="K16" s="44" t="inlineStr"/>
       <c r="L16" s="44" t="inlineStr"/>
@@ -2377,7 +2433,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I17" s="44" t="inlineStr"/>
+      <c r="I17" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J17" s="44" t="inlineStr"/>
       <c r="K17" s="44" t="inlineStr"/>
       <c r="L17" s="44" t="inlineStr"/>
@@ -2462,7 +2522,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I18" s="44" t="inlineStr"/>
+      <c r="I18" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J18" s="44" t="inlineStr"/>
       <c r="K18" s="44" t="inlineStr"/>
       <c r="L18" s="44" t="inlineStr"/>
@@ -2547,7 +2611,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="I19" s="44" t="inlineStr"/>
+      <c r="I19" s="36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J19" s="44" t="inlineStr"/>
       <c r="K19" s="44" t="inlineStr"/>
       <c r="L19" s="44" t="inlineStr"/>
@@ -2595,8 +2663,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:AK1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/attendance/Neurokeys - BCI Typing Project.xlsx
+++ b/attendance/Neurokeys - BCI Typing Project.xlsx
@@ -1724,7 +1724,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O3" s="22" t="inlineStr"/>
+      <c r="O3" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P3" s="22" t="inlineStr"/>
       <c r="Q3" s="22" t="inlineStr"/>
       <c r="R3" s="22" t="inlineStr"/>
@@ -1829,7 +1833,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O4" s="22" t="inlineStr"/>
+      <c r="O4" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P4" s="22" t="inlineStr"/>
       <c r="Q4" s="22" t="inlineStr"/>
       <c r="R4" s="22" t="inlineStr"/>
@@ -1934,7 +1942,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O5" s="22" t="inlineStr"/>
+      <c r="O5" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P5" s="22" t="inlineStr"/>
       <c r="Q5" s="22" t="inlineStr"/>
       <c r="R5" s="22" t="inlineStr"/>
@@ -2039,7 +2051,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O6" s="22" t="inlineStr"/>
+      <c r="O6" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P6" s="22" t="inlineStr"/>
       <c r="Q6" s="22" t="inlineStr"/>
       <c r="R6" s="22" t="inlineStr"/>
@@ -2139,12 +2155,16 @@
           <t>H</t>
         </is>
       </c>
-      <c r="N7" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O7" s="22" t="inlineStr"/>
+      <c r="N7" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O7" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P7" s="22" t="inlineStr"/>
       <c r="Q7" s="22" t="inlineStr"/>
       <c r="R7" s="22" t="inlineStr"/>
@@ -2249,7 +2269,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O8" s="22" t="inlineStr"/>
+      <c r="O8" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P8" s="22" t="inlineStr"/>
       <c r="Q8" s="22" t="inlineStr"/>
       <c r="R8" s="22" t="inlineStr"/>
@@ -2349,12 +2373,16 @@
           <t>H</t>
         </is>
       </c>
-      <c r="N9" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O9" s="22" t="inlineStr"/>
+      <c r="N9" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O9" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P9" s="22" t="inlineStr"/>
       <c r="Q9" s="22" t="inlineStr"/>
       <c r="R9" s="22" t="inlineStr"/>
@@ -2459,7 +2487,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O10" s="22" t="inlineStr"/>
+      <c r="O10" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P10" s="22" t="inlineStr"/>
       <c r="Q10" s="22" t="inlineStr"/>
       <c r="R10" s="22" t="inlineStr"/>
@@ -2564,7 +2596,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O11" s="22" t="inlineStr"/>
+      <c r="O11" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P11" s="22" t="inlineStr"/>
       <c r="Q11" s="22" t="inlineStr"/>
       <c r="R11" s="22" t="inlineStr"/>
@@ -2669,7 +2705,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O12" s="22" t="inlineStr"/>
+      <c r="O12" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P12" s="22" t="inlineStr"/>
       <c r="Q12" s="22" t="inlineStr"/>
       <c r="R12" s="22" t="inlineStr"/>
@@ -2774,7 +2814,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O13" s="22" t="inlineStr"/>
+      <c r="O13" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P13" s="22" t="inlineStr"/>
       <c r="Q13" s="22" t="inlineStr"/>
       <c r="R13" s="22" t="inlineStr"/>
@@ -2879,7 +2923,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="O14" s="22" t="inlineStr"/>
+      <c r="O14" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P14" s="22" t="inlineStr"/>
       <c r="Q14" s="22" t="inlineStr"/>
       <c r="R14" s="22" t="inlineStr"/>
@@ -2979,12 +3027,16 @@
           <t>H</t>
         </is>
       </c>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O15" s="22" t="inlineStr"/>
+      <c r="N15" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O15" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P15" s="22" t="inlineStr"/>
       <c r="Q15" s="22" t="inlineStr"/>
       <c r="R15" s="22" t="inlineStr"/>
@@ -3089,7 +3141,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O16" s="22" t="inlineStr"/>
+      <c r="O16" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P16" s="22" t="inlineStr"/>
       <c r="Q16" s="22" t="inlineStr"/>
       <c r="R16" s="22" t="inlineStr"/>
@@ -3194,7 +3250,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="O17" s="22" t="inlineStr"/>
+      <c r="O17" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P17" s="22" t="inlineStr"/>
       <c r="Q17" s="22" t="inlineStr"/>
       <c r="R17" s="22" t="inlineStr"/>
@@ -3279,9 +3339,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="K18" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="K18" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
       <c r="L18" s="24" t="inlineStr">
@@ -3299,7 +3359,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O18" s="22" t="inlineStr"/>
+      <c r="O18" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P18" s="22" t="inlineStr"/>
       <c r="Q18" s="22" t="inlineStr"/>
       <c r="R18" s="22" t="inlineStr"/>
@@ -3404,7 +3468,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="O19" s="22" t="inlineStr"/>
+      <c r="O19" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="P19" s="22" t="inlineStr"/>
       <c r="Q19" s="22" t="inlineStr"/>
       <c r="R19" s="22" t="inlineStr"/>
@@ -3442,10 +3510,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:AK1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:AK1"/>
-    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="1"/>

--- a/attendance/Neurokeys - BCI Typing Project.xlsx
+++ b/attendance/Neurokeys - BCI Typing Project.xlsx
@@ -1729,10 +1729,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P3" s="22" t="inlineStr"/>
-      <c r="Q3" s="22" t="inlineStr"/>
-      <c r="R3" s="22" t="inlineStr"/>
-      <c r="S3" s="22" t="inlineStr"/>
+      <c r="P3" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q3" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R3" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S3" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T3" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -1838,10 +1854,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P4" s="22" t="inlineStr"/>
-      <c r="Q4" s="22" t="inlineStr"/>
-      <c r="R4" s="22" t="inlineStr"/>
-      <c r="S4" s="22" t="inlineStr"/>
+      <c r="P4" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q4" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R4" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S4" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T4" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -1947,10 +1979,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P5" s="22" t="inlineStr"/>
-      <c r="Q5" s="22" t="inlineStr"/>
-      <c r="R5" s="22" t="inlineStr"/>
-      <c r="S5" s="22" t="inlineStr"/>
+      <c r="P5" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q5" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R5" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S5" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T5" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2056,10 +2104,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P6" s="22" t="inlineStr"/>
-      <c r="Q6" s="22" t="inlineStr"/>
-      <c r="R6" s="22" t="inlineStr"/>
-      <c r="S6" s="22" t="inlineStr"/>
+      <c r="P6" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q6" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R6" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S6" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T6" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2165,10 +2229,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P7" s="22" t="inlineStr"/>
-      <c r="Q7" s="22" t="inlineStr"/>
-      <c r="R7" s="22" t="inlineStr"/>
-      <c r="S7" s="22" t="inlineStr"/>
+      <c r="P7" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q7" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R7" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S7" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T7" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2274,10 +2354,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P8" s="22" t="inlineStr"/>
-      <c r="Q8" s="22" t="inlineStr"/>
-      <c r="R8" s="22" t="inlineStr"/>
-      <c r="S8" s="22" t="inlineStr"/>
+      <c r="P8" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q8" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R8" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S8" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T8" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2383,10 +2479,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P9" s="22" t="inlineStr"/>
-      <c r="Q9" s="22" t="inlineStr"/>
-      <c r="R9" s="22" t="inlineStr"/>
-      <c r="S9" s="22" t="inlineStr"/>
+      <c r="P9" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q9" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R9" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S9" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T9" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2492,10 +2604,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P10" s="22" t="inlineStr"/>
-      <c r="Q10" s="22" t="inlineStr"/>
-      <c r="R10" s="22" t="inlineStr"/>
-      <c r="S10" s="22" t="inlineStr"/>
+      <c r="P10" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q10" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R10" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S10" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T10" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2601,10 +2729,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P11" s="22" t="inlineStr"/>
-      <c r="Q11" s="22" t="inlineStr"/>
-      <c r="R11" s="22" t="inlineStr"/>
-      <c r="S11" s="22" t="inlineStr"/>
+      <c r="P11" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q11" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R11" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S11" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T11" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2710,10 +2854,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P12" s="22" t="inlineStr"/>
-      <c r="Q12" s="22" t="inlineStr"/>
-      <c r="R12" s="22" t="inlineStr"/>
-      <c r="S12" s="22" t="inlineStr"/>
+      <c r="P12" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q12" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R12" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S12" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T12" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2819,10 +2979,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P13" s="22" t="inlineStr"/>
-      <c r="Q13" s="22" t="inlineStr"/>
-      <c r="R13" s="22" t="inlineStr"/>
-      <c r="S13" s="22" t="inlineStr"/>
+      <c r="P13" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q13" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R13" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S13" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T13" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -2928,10 +3104,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P14" s="22" t="inlineStr"/>
-      <c r="Q14" s="22" t="inlineStr"/>
-      <c r="R14" s="22" t="inlineStr"/>
-      <c r="S14" s="22" t="inlineStr"/>
+      <c r="P14" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q14" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R14" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S14" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T14" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3037,10 +3229,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P15" s="22" t="inlineStr"/>
-      <c r="Q15" s="22" t="inlineStr"/>
-      <c r="R15" s="22" t="inlineStr"/>
-      <c r="S15" s="22" t="inlineStr"/>
+      <c r="P15" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q15" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R15" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S15" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T15" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3146,10 +3354,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P16" s="22" t="inlineStr"/>
-      <c r="Q16" s="22" t="inlineStr"/>
-      <c r="R16" s="22" t="inlineStr"/>
-      <c r="S16" s="22" t="inlineStr"/>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q16" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R16" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S16" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T16" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3255,10 +3479,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P17" s="22" t="inlineStr"/>
-      <c r="Q17" s="22" t="inlineStr"/>
-      <c r="R17" s="22" t="inlineStr"/>
-      <c r="S17" s="22" t="inlineStr"/>
+      <c r="P17" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q17" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R17" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S17" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T17" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3364,10 +3604,26 @@
           <t>A</t>
         </is>
       </c>
-      <c r="P18" s="22" t="inlineStr"/>
-      <c r="Q18" s="22" t="inlineStr"/>
-      <c r="R18" s="22" t="inlineStr"/>
-      <c r="S18" s="22" t="inlineStr"/>
+      <c r="P18" s="24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q18" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R18" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S18" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T18" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3473,10 +3729,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="P19" s="22" t="inlineStr"/>
-      <c r="Q19" s="22" t="inlineStr"/>
-      <c r="R19" s="22" t="inlineStr"/>
-      <c r="S19" s="22" t="inlineStr"/>
+      <c r="P19" s="27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q19" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R19" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S19" s="29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="T19" s="23" t="inlineStr">
         <is>
           <t>H</t>
@@ -3510,8 +3782,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:AK1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
